--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -69,247 +78,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>52.548330404217921</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>52.3725834797891</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>51.845342706502642</v>
+        <v>72.962962962962962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>51.318101933216163</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>51.66959578207382</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>53.251318101933222</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>53.251318101933222</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>53.075571177504386</v>
+        <v>74.444444444444443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>52.899824253075565</v>
+        <v>73.703703703703709</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>54.481546572934967</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>52.724077328646743</v>
+        <v>74.444444444444443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>52.548330404217921</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>53.251318101933222</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>51.142355008787341</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>50.087873462214418</v>
+        <v>71.481481481481481</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>51.142355008787341</v>
+        <v>70.740740740740733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>52.899824253075565</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>52.724077328646743</v>
+        <v>73.703703703703709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>53.602811950790866</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>50.615114235500883</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>51.66959578207382</v>
+        <v>71.851851851851862</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>51.845342706502642</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>52.196836555360285</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>51.66959578207382</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>56.063268892794369</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>51.142355008787341</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>51.845342706502642</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>51.318101933216163</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>52.899824253075565</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>53.954305799648509</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>52.548330404217921</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>51.845342706502642</v>
+        <v>71.481481481481481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>54.481546572934967</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>53.251318101933222</v>
+        <v>72.962962962962962</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -78,247 +81,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>72.222222222222214</v>
+        <v>52.548330404217921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.592592592592595</v>
+        <v>52.3725834797891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>72.222222222222214</v>
+        <v>52.3725834797891</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>72.962962962962962</v>
+        <v>51.845342706502642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.222222222222214</v>
+        <v>51.318101933216163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.592592592592595</v>
+        <v>51.66959578207382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.18518518518519</v>
+        <v>53.954305799648509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>74.074074074074076</v>
+        <v>53.251318101933222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>75.925925925925924</v>
+        <v>53.251318101933222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.81481481481481</v>
+        <v>53.427065026362044</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.444444444444443</v>
+        <v>53.075571177504386</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.703703703703709</v>
+        <v>52.899824253075565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.555555555555557</v>
+        <v>54.305799648506145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.925925925925924</v>
+        <v>54.481546572934967</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.555555555555557</v>
+        <v>54.305799648506145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.444444444444443</v>
+        <v>52.724077328646743</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.18518518518519</v>
+        <v>53.075571177504386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.18518518518519</v>
+        <v>52.548330404217921</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>74.81481481481481</v>
+        <v>53.251318101933222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>75.18518518518519</v>
+        <v>53.075571177504386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>75.18518518518519</v>
+        <v>53.427065026362044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>71.111111111111114</v>
+        <v>51.142355008787341</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>71.481481481481481</v>
+        <v>50.087873462214418</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>70.740740740740733</v>
+        <v>51.142355008787341</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.074074074074076</v>
+        <v>52.899824253075565</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>73.703703703703709</v>
+        <v>52.724077328646743</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.18518518518519</v>
+        <v>53.602811950790866</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.925925925925924</v>
+        <v>54.657293497363803</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>75.18518518518519</v>
+        <v>53.954305799648509</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>75.925925925925924</v>
+        <v>54.657293497363803</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>71.111111111111114</v>
+        <v>50.615114235500883</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>71.851851851851862</v>
+        <v>51.66959578207382</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>72.592592592592595</v>
+        <v>51.845342706502642</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>72.222222222222214</v>
+        <v>52.196836555360285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>71.111111111111114</v>
+        <v>51.66959578207382</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>75.555555555555557</v>
+        <v>56.063268892794369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>70</v>
+        <v>51.142355008787341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>70</v>
+        <v>51.845342706502642</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>71.111111111111114</v>
+        <v>51.318101933216163</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.81481481481481</v>
+        <v>52.899824253075565</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.18518518518519</v>
+        <v>53.427065026362044</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.555555555555557</v>
+        <v>53.954305799648509</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.81481481481481</v>
+        <v>53.427065026362044</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>72.592592592592595</v>
+        <v>52.3725834797891</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.333333333333329</v>
+        <v>52.548330404217921</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>71.481481481481481</v>
+        <v>51.845342706502642</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>74.81481481481481</v>
+        <v>54.481546572934967</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>72.962962962962962</v>
+        <v>53.251318101933222</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -81,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -87,247 +90,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>52.548330404217921</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>52.3725834797891</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>51.845342706502642</v>
+        <v>72.962962962962962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>51.318101933216163</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>51.66959578207382</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>53.251318101933222</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>53.251318101933222</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>53.075571177504386</v>
+        <v>74.444444444444443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>52.899824253075565</v>
+        <v>73.703703703703709</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>54.481546572934967</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>54.305799648506145</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>52.724077328646743</v>
+        <v>74.444444444444443</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>52.548330404217921</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>53.251318101933222</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>53.075571177504386</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>51.142355008787341</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>50.087873462214418</v>
+        <v>71.481481481481481</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>51.142355008787341</v>
+        <v>70.740740740740733</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>52.899824253075565</v>
+        <v>74.074074074074076</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>52.724077328646743</v>
+        <v>73.703703703703709</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>53.602811950790866</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>53.954305799648509</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>54.657293497363803</v>
+        <v>75.925925925925924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>50.615114235500883</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>51.66959578207382</v>
+        <v>71.851851851851862</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>51.845342706502642</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>52.196836555360285</v>
+        <v>72.222222222222214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>51.66959578207382</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>56.063268892794369</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>51.142355008787341</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>51.845342706502642</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>51.318101933216163</v>
+        <v>71.111111111111114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>52.899824253075565</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>53.427065026362044</v>
+        <v>75.18518518518519</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>53.954305799648509</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>53.427065026362044</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>52.3725834797891</v>
+        <v>72.592592592592595</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>52.548330404217921</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>51.845342706502642</v>
+        <v>71.481481481481481</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>54.481546572934967</v>
+        <v>74.81481481481481</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>53.251318101933222</v>
+        <v>72.962962962962962</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -90,7 +93,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -93,247 +123,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>72.222222222222214</v>
+        <v>70.652173913043484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>72.592592592592595</v>
+        <v>70.380434782608688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>72.222222222222214</v>
+        <v>70.380434782608688</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>72.962962962962962</v>
+        <v>70.108695652173907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>72.222222222222214</v>
+        <v>69.83695652173914</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.592592592592595</v>
+        <v>70.108695652173907</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>74.074074074074076</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>75.925925925925924</v>
+        <v>72.554347826086953</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.81481481481481</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>74.444444444444443</v>
+        <v>70.652173913043484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>73.703703703703709</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>75.555555555555557</v>
+        <v>72.554347826086953</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.925925925925924</v>
+        <v>72.554347826086953</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>75.555555555555557</v>
+        <v>72.554347826086953</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.444444444444443</v>
+        <v>71.467391304347828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.18518518518519</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>74.81481481481481</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>75.18518518518519</v>
+        <v>72.554347826086953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>71.111111111111114</v>
+        <v>69.021739130434781</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>71.481481481481481</v>
+        <v>70.380434782608688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>70.740740740740733</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.074074074074076</v>
+        <v>71.195652173913047</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>73.703703703703709</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.925925925925924</v>
+        <v>73.369565217391312</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>75.18518518518519</v>
+        <v>73.097826086956516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>75.925925925925924</v>
+        <v>73.097826086956516</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>71.111111111111114</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>71.851851851851862</v>
+        <v>69.83695652173914</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>72.592592592592595</v>
+        <v>70.923913043478265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>72.222222222222214</v>
+        <v>70.652173913043484</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>71.111111111111114</v>
+        <v>70.108695652173907</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>75.555555555555557</v>
+        <v>71.195652173913047</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>70</v>
+        <v>69.021739130434781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>70</v>
+        <v>69.021739130434781</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>71.111111111111114</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.81481481481481</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.18518518518519</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.555555555555557</v>
+        <v>72.282608695652172</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.81481481481481</v>
+        <v>71.739130434782609</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>72.592592592592595</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.333333333333329</v>
+        <v>70.380434782608688</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>71.481481481481481</v>
+        <v>69.565217391304344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>74.81481481481481</v>
+        <v>70.380434782608688</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>72.962962962962962</v>
+        <v>69.83695652173914</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Results/HK_G_acc_G.xlsx
+++ b/Thresholding/Results/HK_G_acc_G.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>HK_G_acc_G</t>
+  </si>
   <si>
     <t>HK_G_acc_G</t>
   </si>
@@ -123,247 +126,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>70.652173913043484</v>
+        <v>50.070323488045013</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>70.380434782608688</v>
+        <v>49.929676511954995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>70.380434782608688</v>
+        <v>50.210970464135016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>70.108695652173907</v>
+        <v>49.507735583684955</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>69.83695652173914</v>
+        <v>49.507735583684955</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>70.108695652173907</v>
+        <v>49.367088607594937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>71.739130434782609</v>
+        <v>51.61744022503516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>72.282608695652172</v>
+        <v>51.336146272855132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>72.554347826086953</v>
+        <v>51.61744022503516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>72.282608695652172</v>
+        <v>51.898734177215189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>70.652173913043484</v>
+        <v>50.351617440225041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>71.739130434782609</v>
+        <v>50.914205344585092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>72.554347826086953</v>
+        <v>51.758087201125178</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>72.554347826086953</v>
+        <v>51.61744022503516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>72.554347826086953</v>
+        <v>52.180028129395218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>71.467391304347828</v>
+        <v>50.492264416315045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>71.739130434782609</v>
+        <v>50.773558368495074</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.739130434782609</v>
+        <v>49.929676511954995</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>71.739130434782609</v>
+        <v>50.632911392405063</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.282608695652172</v>
+        <v>51.054852320675103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>72.554347826086953</v>
+        <v>50.914205344585092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>69.021739130434781</v>
+        <v>48.804500703234879</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>70.380434782608688</v>
+        <v>48.38255977496484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>69.565217391304344</v>
+        <v>48.52320675105485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>71.195652173913047</v>
+        <v>50.632911392405063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>71.739130434782609</v>
+        <v>50.914205344585092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>72.282608695652172</v>
+        <v>51.195499296765121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>73.369565217391312</v>
+        <v>52.180028129395218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>73.097826086956516</v>
+        <v>51.47679324894515</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>73.097826086956516</v>
+        <v>51.758087201125178</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>69.565217391304344</v>
+        <v>48.945147679324897</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>69.83695652173914</v>
+        <v>49.367088607594937</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>70.923913043478265</v>
+        <v>49.789029535864984</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>70.652173913043484</v>
+        <v>50.632911392405063</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>70.108695652173907</v>
+        <v>50.070323488045013</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>71.195652173913047</v>
+        <v>53.586497890295362</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>69.021739130434781</v>
+        <v>48.945147679324897</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>69.021739130434781</v>
+        <v>49.929676511954995</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>69.565217391304344</v>
+        <v>49.929676511954995</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>72.282608695652172</v>
+        <v>51.47679324894515</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>72.282608695652172</v>
+        <v>51.61744022503516</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>72.282608695652172</v>
+        <v>51.758087201125178</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>71.739130434782609</v>
+        <v>51.61744022503516</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>69.565217391304344</v>
+        <v>50.351617440225041</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>70.380434782608688</v>
+        <v>50.351617440225041</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>69.565217391304344</v>
+        <v>49.226441631504926</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>70.380434782608688</v>
+        <v>51.898734177215189</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>69.83695652173914</v>
+        <v>50.632911392405063</v>
       </c>
     </row>
   </sheetData>
